--- a/INJECT_DATA/SCMMembersPB.xlsx
+++ b/INJECT_DATA/SCMMembersPB.xlsx
@@ -201,6 +201,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
       <c r="D2" s="2">
         <v>0.00033819444444444446</v>
       </c>
@@ -210,29 +213,68 @@
       <c r="F2" s="2">
         <v>0.0017422453703703703</v>
       </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
       <c r="I2" s="2">
         <v>0.0004568287037037037</v>
       </c>
       <c r="J2" s="2">
         <v>0.0011100694444444443</v>
       </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
       <c r="N2" s="2">
         <v>0.00043055555555555555</v>
       </c>
       <c r="O2" s="2">
         <v>0.0009818287037037037</v>
       </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
       <c r="S2" s="2">
         <v>0.00038009259259259257</v>
       </c>
       <c r="T2" s="2">
         <v>0.0009462962962962963</v>
       </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
       <c r="Y2" s="2">
         <v>0.0008893518518518519</v>
       </c>
       <c r="Z2" s="2">
         <v>0.002040625</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -242,6 +284,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="2">
         <v>0.0004027777777777778</v>
       </c>
@@ -251,12 +296,24 @@
       <c r="F3" s="2">
         <v>0.002018402777777778</v>
       </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3" s="2">
         <v>0.0005649305555555556</v>
       </c>
       <c r="J3" s="2">
         <v>0.0013193287037037036</v>
       </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
       <c r="M3" s="2">
         <v>0.00031493055555555555</v>
       </c>
@@ -266,17 +323,41 @@
       <c r="O3" s="2">
         <v>0.0011306712962962963</v>
       </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
       <c r="S3" s="2">
         <v>0.0005287037037037038</v>
       </c>
       <c r="T3" s="2">
         <v>0.0011302083333333333</v>
       </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
       <c r="Y3" s="2">
         <v>0.0011259259259259258</v>
       </c>
       <c r="Z3" s="2">
         <v>0.002356828703703704</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -286,29 +367,80 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
       <c r="D4" s="2">
         <v>0.0003847222222222222</v>
       </c>
       <c r="E4" s="2">
         <v>0.0008697916666666667</v>
       </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4" s="2">
         <v>0.0004681712962962963</v>
       </c>
       <c r="J4" s="2">
         <v>0.001042013888888889</v>
       </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
       <c r="N4" s="2">
         <v>0.0004765046296296296</v>
       </c>
       <c r="O4" s="2">
         <v>0.0011318287037037037</v>
       </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
       <c r="S4" s="2">
         <v>0.0006864583333333333</v>
       </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
       <c r="Y4" s="2">
         <v>0.001046875</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -318,6 +450,9 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
       <c r="D5" s="2">
         <v>0.00033483796296296294</v>
       </c>
@@ -327,29 +462,68 @@
       <c r="F5" s="2">
         <v>0.001783912037037037</v>
       </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5" s="2">
         <v>0.00043645833333333335</v>
       </c>
       <c r="J5" s="2">
         <v>0.0010594907407407408</v>
       </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
       <c r="N5" s="2">
         <v>0.0004105324074074074</v>
       </c>
       <c r="O5" s="2">
         <v>0.0009521990740740741</v>
       </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
       <c r="S5" s="2">
         <v>0.00038680555555555555</v>
       </c>
       <c r="T5" s="2">
         <v>0.0011983796296296295</v>
       </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
       <c r="Y5" s="2">
         <v>0.0008940972222222222</v>
       </c>
       <c r="Z5" s="2">
         <v>0.001977777777777778</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -365,23 +539,74 @@
       <c r="D6" s="2">
         <v>0.00047627314814814814</v>
       </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
       <c r="H6" s="2">
         <v>0.000308912037037037</v>
       </c>
       <c r="I6" s="2">
         <v>0.000683912037037037</v>
       </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
       <c r="M6" s="2">
         <v>0.0002708333333333333</v>
       </c>
       <c r="N6" s="2">
         <v>0.0005505787037037037</v>
       </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
       <c r="R6" s="2">
         <v>0.00025925925925925926</v>
       </c>
       <c r="S6" s="2">
         <v>0.0006359953703703703</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -400,6 +625,12 @@
       <c r="E7" s="2">
         <v>0.0009961805555555555</v>
       </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2">
         <v>0.0003099537037037037</v>
       </c>
@@ -409,6 +640,12 @@
       <c r="J7" s="2">
         <v>0.0012855324074074073</v>
       </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
       <c r="M7" s="2">
         <v>0.00031319444444444445</v>
       </c>
@@ -418,6 +655,12 @@
       <c r="O7" s="2">
         <v>0.0011043981481481482</v>
       </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
       <c r="R7" s="2">
         <v>0.0002318287037037037</v>
       </c>
@@ -427,8 +670,26 @@
       <c r="T7" s="2">
         <v>0.001333912037037037</v>
       </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
       <c r="Y7" s="2">
         <v>0.0011332175925925926</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -441,14 +702,77 @@
       <c r="C8" s="2">
         <v>0.00031203703703703705</v>
       </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
       <c r="H8" s="2">
         <v>0.000415625</v>
       </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
       <c r="M8" s="2">
         <v>0.00040011574074074076</v>
       </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
       <c r="R8" s="2">
         <v>0.0004071759259259259</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -470,6 +794,9 @@
       <c r="F9" s="2">
         <v>0.0022246527777777777</v>
       </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
       <c r="H9" s="2">
         <v>0.00029328703703703705</v>
       </c>
@@ -479,6 +806,12 @@
       <c r="J9" s="2">
         <v>0.0012565972222222223</v>
       </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
       <c r="M9" s="2">
         <v>0.00029386574074074075</v>
       </c>
@@ -488,6 +821,12 @@
       <c r="O9" s="2">
         <v>0.0013256944444444444</v>
       </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
       <c r="R9" s="2">
         <v>0.0002976851851851852</v>
       </c>
@@ -497,11 +836,26 @@
       <c r="T9" s="2">
         <v>0.0014341435185185186</v>
       </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
       <c r="Y9" s="2">
         <v>0.0011594907407407407</v>
       </c>
       <c r="Z9" s="2">
         <v>0.0025388888888888887</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -520,6 +874,12 @@
       <c r="E10" s="2">
         <v>0.001191550925925926</v>
       </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
       <c r="H10" s="2">
         <v>0.00035520833333333335</v>
       </c>
@@ -529,20 +889,56 @@
       <c r="J10" s="2">
         <v>0.001509837962962963</v>
       </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
       <c r="M10" s="2">
         <v>0.0003142361111111111</v>
       </c>
       <c r="N10" s="2">
         <v>0.0007039351851851852</v>
       </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
       <c r="R10" s="2">
         <v>0.00026689814814814816</v>
       </c>
       <c r="S10" s="2">
         <v>0.0006212962962962963</v>
       </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
       <c r="Y10" s="2">
         <v>0.0013197916666666666</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -561,23 +957,71 @@
       <c r="E11" s="2">
         <v>0.0009913194444444444</v>
       </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
       <c r="H11" s="2">
         <v>0.0002914351851851852</v>
       </c>
       <c r="I11" s="2">
         <v>0.0006502314814814815</v>
       </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
       <c r="M11" s="2">
         <v>0.0003116898148148148</v>
       </c>
       <c r="N11" s="2">
         <v>0.0005638888888888888</v>
       </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
       <c r="R11" s="2">
         <v>0.00022858796296296296</v>
       </c>
       <c r="S11" s="2">
         <v>0.0005688657407407408</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -596,6 +1040,12 @@
       <c r="E12" s="2">
         <v>0.0009732638888888889</v>
       </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
       <c r="H12" s="2">
         <v>0.000321875</v>
       </c>
@@ -605,20 +1055,56 @@
       <c r="J12" s="2">
         <v>0.0012971064814814815</v>
       </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
       <c r="M12" s="2">
         <v>0.0002840277777777778</v>
       </c>
       <c r="N12" s="2">
         <v>0.0005835648148148149</v>
       </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
       <c r="R12" s="2">
         <v>0.00025451388888888887</v>
       </c>
       <c r="S12" s="2">
         <v>0.0005956018518518518</v>
       </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
       <c r="Y12" s="2">
         <v>0.0011422453703703703</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -634,20 +1120,74 @@
       <c r="D13" s="2">
         <v>0.0004800925925925926</v>
       </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
       <c r="H13" s="2">
         <v>0.0003303240740740741</v>
       </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
       <c r="M13" s="2">
         <v>0.00032002314814814816</v>
       </c>
       <c r="N13" s="2">
         <v>0.0006137731481481481</v>
       </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
       <c r="R13" s="2">
         <v>0.00023946759259259258</v>
       </c>
       <c r="S13" s="2">
         <v>0.0005927083333333333</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -663,20 +1203,74 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
       <c r="H14" s="2">
         <v>0.0003537037037037037</v>
       </c>
       <c r="I14" s="2">
         <v>0.0007960648148148148</v>
       </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
       <c r="M14" s="2">
         <v>0.0002888888888888889</v>
       </c>
       <c r="N14" s="2">
         <v>0.0006894675925925925</v>
       </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
       <c r="R14" s="2">
         <v>0.00029386574074074075</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -689,11 +1283,77 @@
       <c r="C15" s="2">
         <v>0.00035162037037037036</v>
       </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
       <c r="H15" s="2">
         <v>0.0004454861111111111</v>
       </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
       <c r="M15" s="2">
         <v>0.0005269675925925925</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -703,6 +1363,9 @@
       <c r="B16">
         <v>16</v>
       </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
       <c r="D16" s="2">
         <v>0.00036608796296296297</v>
       </c>
@@ -712,29 +1375,68 @@
       <c r="F16" s="2">
         <v>0.0018973379629629629</v>
       </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16" s="2">
         <v>0.0005186342592592593</v>
       </c>
       <c r="J16" s="2">
         <v>0.001160763888888889</v>
       </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
       <c r="N16" s="2">
         <v>0.0004759259259259259</v>
       </c>
       <c r="O16" s="2">
         <v>0.0010979166666666667</v>
       </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
       <c r="S16" s="2">
         <v>0.0004679398148148148</v>
       </c>
       <c r="T16" s="2">
         <v>0.0011303240740740742</v>
       </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
       <c r="Y16" s="2">
         <v>0.0010363425925925926</v>
       </c>
       <c r="Z16" s="2">
         <v>0.002262384259259259</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -756,26 +1458,68 @@
       <c r="F17" s="2">
         <v>0.002069560185185185</v>
       </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
       <c r="H17" s="2">
         <v>0.00037037037037037035</v>
       </c>
       <c r="I17" s="2">
         <v>0.0006318287037037037</v>
       </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
       <c r="M17" s="2">
         <v>0.0002842592592592593</v>
       </c>
       <c r="N17" s="2">
         <v>0.0005226851851851852</v>
       </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="R17" s="2">
         <v>0.00029618055555555555</v>
       </c>
       <c r="S17" s="2">
         <v>0.000528125</v>
       </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
       <c r="Y17" s="2">
         <v>0.0011989583333333333</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -788,17 +1532,77 @@
       <c r="C18" s="2">
         <v>0.00024560185185185183</v>
       </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
       <c r="H18" s="2">
         <v>0.00037361111111111113</v>
       </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
       <c r="M18" s="2">
         <v>0.0003608796296296296</v>
       </c>
       <c r="N18" s="2">
         <v>0.0009928240740740741</v>
       </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
       <c r="R18" s="2">
         <v>0.00044166666666666665</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -817,6 +1621,12 @@
       <c r="E19" s="2">
         <v>0.0011538194444444445</v>
       </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
       <c r="H19" s="2">
         <v>0.0003368055555555556</v>
       </c>
@@ -826,6 +1636,12 @@
       <c r="J19" s="2">
         <v>0.0013560185185185186</v>
       </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
       <c r="M19" s="2">
         <v>0.0003230324074074074</v>
       </c>
@@ -835,14 +1651,41 @@
       <c r="O19" s="2">
         <v>0.0014554398148148148</v>
       </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
       <c r="R19" s="2">
         <v>0.00031435185185185185</v>
       </c>
       <c r="S19" s="2">
         <v>0.0006553240740740741</v>
       </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
       <c r="Y19" s="2">
         <v>0.0012576388888888889</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -858,20 +1701,74 @@
       <c r="D20" s="2">
         <v>0.0005125</v>
       </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
       <c r="H20" s="2">
         <v>0.00031724537037037035</v>
       </c>
       <c r="I20" s="2">
         <v>0.0006203703703703704</v>
       </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
       <c r="M20" s="2">
         <v>0.00028912037037037036</v>
       </c>
       <c r="N20" s="2">
         <v>0.0006630787037037037</v>
       </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
       <c r="R20" s="2">
         <v>0.0003204861111111111</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -884,11 +1781,77 @@
       <c r="C21" s="2">
         <v>0.00027037037037037036</v>
       </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
       <c r="H21" s="2">
         <v>0.0003391203703703704</v>
       </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
       <c r="M21" s="2">
         <v>0.0003320601851851852</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -907,6 +1870,12 @@
       <c r="E22" s="2">
         <v>0.0008413194444444444</v>
       </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
       <c r="H22" s="2">
         <v>0.00035439814814814817</v>
       </c>
@@ -916,20 +1885,56 @@
       <c r="J22" s="2">
         <v>0.001201851851851852</v>
       </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
       <c r="M22" s="2">
         <v>0.0003256944444444444</v>
       </c>
       <c r="N22" s="2">
         <v>0.0004887731481481481</v>
       </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
       <c r="R22" s="2">
         <v>0.0003179398148148148</v>
       </c>
       <c r="S22" s="2">
         <v>0.0004201388888888889</v>
       </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
       <c r="Y22" s="2">
         <v>0.0011523148148148148</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -945,20 +1950,74 @@
       <c r="D23" s="2">
         <v>0.000612037037037037</v>
       </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
       <c r="H23" s="2">
         <v>0.0003587962962962963</v>
       </c>
       <c r="I23" s="2">
         <v>0.0007585648148148148</v>
       </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
       <c r="M23" s="2">
         <v>0.0003201388888888889</v>
       </c>
       <c r="N23" s="2">
         <v>0.0007407407407407407</v>
       </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
       <c r="R23" s="2">
         <v>0.0003429398148148148</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -968,32 +2027,80 @@
       <c r="B24">
         <v>25</v>
       </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
       <c r="D24" s="2">
         <v>0.00039675925925925924</v>
       </c>
       <c r="E24" s="2">
         <v>0.0009645833333333334</v>
       </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
       <c r="I24" s="2">
         <v>0.0005208333333333333</v>
       </c>
       <c r="J24" s="2">
         <v>0.0012011574074074075</v>
       </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
       <c r="M24" s="2">
         <v>0.0002934027777777778</v>
       </c>
       <c r="N24" s="2">
         <v>0.0005287037037037038</v>
       </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
       <c r="S24" s="2">
         <v>0.0004792824074074074</v>
       </c>
       <c r="T24" s="2">
         <v>0.0012060185185185186</v>
       </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
       <c r="Y24" s="2">
         <v>0.001059375</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1003,18 +2110,36 @@
       <c r="B25">
         <v>26</v>
       </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
       <c r="D25" s="2">
         <v>0.0003980324074074074</v>
       </c>
       <c r="E25" s="2">
         <v>0.0010265046296296296</v>
       </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
       <c r="I25" s="2">
         <v>0.0005273148148148148</v>
       </c>
       <c r="J25" s="2">
         <v>0.0012561342592592594</v>
       </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
       <c r="M25" s="2">
         <v>0.0003133101851851852</v>
       </c>
@@ -1024,14 +2149,41 @@
       <c r="O25" s="2">
         <v>0.0013614583333333332</v>
       </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
       <c r="R25" s="2">
         <v>0.0002658564814814815</v>
       </c>
       <c r="S25" s="2">
         <v>0.00045902777777777777</v>
       </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
       <c r="Y25" s="2">
         <v>0.001025</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1041,6 +2193,9 @@
       <c r="B26">
         <v>27</v>
       </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
       <c r="D26" s="2">
         <v>0.0003574074074074074</v>
       </c>
@@ -1050,29 +2205,68 @@
       <c r="F26" s="2">
         <v>0.0017837962962962963</v>
       </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
       <c r="I26" s="2">
         <v>0.0005226851851851852</v>
       </c>
       <c r="J26" s="2">
         <v>0.0011640046296296296</v>
       </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
       <c r="N26" s="2">
         <v>0.00041087962962962964</v>
       </c>
       <c r="O26" s="2">
         <v>0.001032523148148148</v>
       </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
       <c r="S26" s="2">
         <v>0.0004087962962962963</v>
       </c>
       <c r="T26" s="2">
         <v>0.0009915509259259259</v>
       </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
       <c r="Y26" s="2">
         <v>0.0010969907407407408</v>
       </c>
       <c r="Z26" s="2">
         <v>0.0021730324074074074</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1088,26 +2282,74 @@
       <c r="D27" s="2">
         <v>0.0004923611111111111</v>
       </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
       <c r="H27" s="2">
         <v>0.00034398148148148146</v>
       </c>
       <c r="I27" s="2">
         <v>0.0006922453703703704</v>
       </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
       <c r="M27" s="2">
         <v>0.00032199074074074074</v>
       </c>
       <c r="N27" s="2">
         <v>0.0006940972222222223</v>
       </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
       <c r="R27" s="2">
         <v>0.00027627314814814816</v>
       </c>
       <c r="S27" s="2">
         <v>0.0006796296296296296</v>
       </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
       <c r="Y27" s="2">
         <v>0.0014131944444444444</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1123,20 +2365,74 @@
       <c r="D28" s="2">
         <v>0.0004976851851851852</v>
       </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
       <c r="H28" s="2">
         <v>0.00033229166666666666</v>
       </c>
       <c r="I28" s="2">
         <v>0.0006319444444444444</v>
       </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
       <c r="M28" s="2">
         <v>0.0003060185185185185</v>
       </c>
       <c r="N28" s="2">
         <v>0.00059375</v>
       </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
       <c r="R28" s="2">
         <v>0.0002640046296296296</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1149,14 +2445,77 @@
       <c r="C29" s="2">
         <v>0.00044953703703703703</v>
       </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
       <c r="H29" s="2">
         <v>0.0006803240740740741</v>
       </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
       <c r="M29" s="2">
         <v>0.0004849537037037037</v>
       </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
       <c r="R29" s="2">
         <v>0.0006202546296296297</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1172,23 +2531,74 @@
       <c r="D30" s="2">
         <v>0.00041736111111111113</v>
       </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
       <c r="H30" s="2">
         <v>0.0002625</v>
       </c>
       <c r="I30" s="2">
         <v>0.0005693287037037037</v>
       </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
       <c r="M30" s="2">
         <v>0.00024664351851851854</v>
       </c>
       <c r="N30" s="2">
         <v>0.0006069444444444445</v>
       </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
       <c r="R30" s="2">
         <v>0.0002423611111111111</v>
       </c>
       <c r="S30" s="2">
         <v>0.000550925925925926</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1201,17 +2611,77 @@
       <c r="C31" s="2">
         <v>0.0002777777777777778</v>
       </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
       <c r="H31" s="2">
         <v>0.0004615740740740741</v>
       </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
       <c r="M31" s="2">
         <v>0.00035069444444444444</v>
       </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
       <c r="R31" s="2">
         <v>0.00030532407407407407</v>
       </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
       <c r="Y31" s="2">
         <v>0.0017953703703703703</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1227,17 +2697,74 @@
       <c r="D32" s="2">
         <v>0.0004922453703703703</v>
       </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
       <c r="H32" s="2">
         <v>0.00031180555555555557</v>
       </c>
       <c r="I32" s="2">
         <v>0.000691550925925926</v>
       </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
       <c r="M32" s="2">
         <v>0.0003002314814814815</v>
       </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
       <c r="R32" s="2">
         <v>0.00026516203703703706</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1247,6 +2774,81 @@
       <c r="B33">
         <v>34</v>
       </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -1258,8 +2860,77 @@
       <c r="C34" s="2">
         <v>0.0002825231481481482</v>
       </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
       <c r="M34" s="2">
         <v>0.0003761574074074074</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1269,6 +2940,81 @@
       <c r="B35">
         <v>36</v>
       </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -1280,14 +3026,77 @@
       <c r="C36" s="2">
         <v>0.00031006944444444447</v>
       </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
       <c r="H36" s="2">
         <v>0.0003981481481481481</v>
       </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
       <c r="M36" s="2">
         <v>0.00044525462962962965</v>
       </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
       <c r="R36" s="2">
         <v>0.00037314814814814817</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1300,14 +3109,77 @@
       <c r="C37" s="2">
         <v>0.0002532407407407407</v>
       </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
       <c r="H37" s="2">
         <v>0.0003773148148148148</v>
       </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
       <c r="M37" s="2">
         <v>0.0003186342592592593</v>
       </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
       <c r="R37" s="2">
         <v>0.00029479166666666667</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1320,14 +3192,77 @@
       <c r="C38" s="2">
         <v>0.0002755787037037037</v>
       </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
       <c r="H38" s="2">
         <v>0.00041261574074074074</v>
       </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
       <c r="M38" s="2">
         <v>0.00033518518518518516</v>
       </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
       <c r="R38" s="2">
         <v>0.0003494212962962963</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1343,6 +3278,15 @@
       <c r="D39" s="2">
         <v>0.0005145833333333334</v>
       </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
       <c r="H39" s="2">
         <v>0.0003508101851851852</v>
       </c>
@@ -1352,6 +3296,12 @@
       <c r="J39" s="2">
         <v>0.0014921296296296297</v>
       </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
       <c r="M39" s="2">
         <v>0.00033020833333333334</v>
       </c>
@@ -1361,11 +3311,41 @@
       <c r="O39" s="2">
         <v>0.001442476851851852</v>
       </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
       <c r="R39" s="2">
         <v>0.00029120370370370373</v>
       </c>
       <c r="S39" s="2">
         <v>0.0007137731481481482</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1384,23 +3364,71 @@
       <c r="E40" s="2">
         <v>0.0010648148148148149</v>
       </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
       <c r="H40" s="2">
         <v>0.0003189814814814815</v>
       </c>
       <c r="I40" s="2">
         <v>0.0007005787037037037</v>
       </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
       <c r="M40" s="2">
         <v>0.0002662037037037037</v>
       </c>
       <c r="N40" s="2">
         <v>0.0005744212962962963</v>
       </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
       <c r="R40" s="2">
         <v>0.00023946759259259258</v>
       </c>
       <c r="S40" s="2">
         <v>0.0006385416666666667</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1416,14 +3444,74 @@
       <c r="D41" s="2">
         <v>0.0006015046296296297</v>
       </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
       <c r="H41" s="2">
         <v>0.00037430555555555557</v>
       </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
       <c r="M41" s="2">
         <v>0.00031724537037037035</v>
       </c>
       <c r="N41" s="2">
         <v>0.0008206018518518519</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1433,17 +3521,80 @@
       <c r="B42">
         <v>43</v>
       </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
       <c r="D42" s="2">
         <v>0.0004398148148148148</v>
       </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
       <c r="I42" s="2">
         <v>0.0007075231481481481</v>
       </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
       <c r="M42" s="2">
         <v>0.0003060185185185185</v>
       </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
       <c r="R42" s="2">
         <v>0.00036712962962962963</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1453,11 +3604,80 @@
       <c r="B43">
         <v>44</v>
       </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
       <c r="D43" s="2">
         <v>0.00040833333333333336</v>
       </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
       <c r="I43" s="2">
         <v>0.0006365740740740741</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1473,6 +3693,15 @@
       <c r="D44" s="2">
         <v>0.0003613425925925926</v>
       </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
       <c r="H44" s="2">
         <v>0.0003133101851851852</v>
       </c>
@@ -1482,17 +3711,56 @@
       <c r="J44" s="2">
         <v>0.0012706018518518518</v>
       </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
       <c r="M44" s="2">
         <v>0.00026296296296296294</v>
       </c>
       <c r="N44" s="2">
         <v>0.0005019675925925926</v>
       </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
       <c r="R44" s="2">
         <v>0.0002740740740740741</v>
       </c>
       <c r="S44" s="2">
         <v>0.0005280092592592592</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1508,11 +3776,74 @@
       <c r="D45" s="2">
         <v>0.0007609953703703703</v>
       </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
       <c r="H45" s="2">
         <v>0.0004238425925925926</v>
       </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
       <c r="M45" s="2">
         <v>0.00035428240740740743</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1531,6 +3862,12 @@
       <c r="E46" s="2">
         <v>0.0011104166666666667</v>
       </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
       <c r="H46" s="2">
         <v>0.00030416666666666667</v>
       </c>
@@ -1540,12 +3877,27 @@
       <c r="J46" s="2">
         <v>0.0012560185185185185</v>
       </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
       <c r="M46" s="2">
         <v>0.00031759259259259257</v>
       </c>
       <c r="N46" s="2">
         <v>0.0005009259259259259</v>
       </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
       <c r="R46" s="2">
         <v>0.00029189814814814817</v>
       </c>
@@ -1554,6 +3906,27 @@
       </c>
       <c r="T46" s="2">
         <v>0.0012721064814814815</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1563,17 +3936,80 @@
       <c r="B47">
         <v>49</v>
       </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
       <c r="D47" s="2">
         <v>0.000346875</v>
       </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
       <c r="I47" s="2">
         <v>0.0005252314814814814</v>
       </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
       <c r="N47" s="2">
         <v>0.00044814814814814815</v>
       </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
       <c r="S47" s="2">
         <v>0.0004462962962962963</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1589,20 +4025,74 @@
       <c r="D48" s="2">
         <v>0.0004939814814814815</v>
       </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
       <c r="H48" s="2">
         <v>0.0003494212962962963</v>
       </c>
       <c r="I48" s="2">
         <v>0.0007118055555555556</v>
       </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
       <c r="M48" s="2">
         <v>0.0002818287037037037</v>
       </c>
       <c r="N48" s="2">
         <v>0.0006980324074074074</v>
       </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
       <c r="R48" s="2">
         <v>0.00028472222222222223</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1615,11 +4105,77 @@
       <c r="C49" s="2">
         <v>0.0004814814814814815</v>
       </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
       <c r="H49" s="2">
         <v>0.0006582175925925926</v>
       </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
       <c r="M49" s="2">
         <v>0.000524074074074074</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1632,8 +4188,77 @@
       <c r="C50" s="2">
         <v>0.0003587962962962963</v>
       </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
       <c r="M50" s="2">
         <v>0.0003125</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1646,11 +4271,77 @@
       <c r="C51" s="2">
         <v>0.00030821759259259257</v>
       </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
       <c r="H51" s="2">
         <v>0.00042858796296296297</v>
       </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
       <c r="M51" s="2">
         <v>0.00043194444444444443</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1666,14 +4357,74 @@
       <c r="D52" s="2">
         <v>0.0005775462962962963</v>
       </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
       <c r="H52" s="2">
         <v>0.00038773148148148147</v>
       </c>
+      <c r="I52" s="2">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
       <c r="M52" s="2">
         <v>0.0003125</v>
       </c>
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
       <c r="R52" s="2">
         <v>0.0003128472222222222</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1683,29 +4434,80 @@
       <c r="B53">
         <v>55</v>
       </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
       <c r="D53" s="2">
         <v>0.00042430555555555554</v>
       </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
       <c r="I53" s="2">
         <v>0.0005996527777777777</v>
       </c>
       <c r="J53" s="2">
         <v>0.001374537037037037</v>
       </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
       <c r="N53" s="2">
         <v>0.0004849537037037037</v>
       </c>
       <c r="O53" s="2">
         <v>0.0012131944444444445</v>
       </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
       <c r="R53" s="2">
         <v>0.00021979166666666666</v>
       </c>
       <c r="S53" s="2">
         <v>0.0005491898148148149</v>
       </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
       <c r="Y53" s="2">
         <v>0.0011103009259259258</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1721,17 +4523,74 @@
       <c r="D54" s="2">
         <v>0.00049375</v>
       </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
       <c r="H54" s="2">
         <v>0.0003787037037037037</v>
       </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
       <c r="M54" s="2">
         <v>0.00031493055555555555</v>
       </c>
       <c r="N54" s="2">
         <v>0.0006210648148148149</v>
       </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
       <c r="R54" s="2">
         <v>0.00029652777777777777</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1744,14 +4603,77 @@
       <c r="C55" s="2">
         <v>0.0002815972222222222</v>
       </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
       <c r="H55" s="2">
         <v>0.00042314814814814814</v>
       </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
       <c r="M55" s="2">
         <v>0.0003453703703703704</v>
       </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
       <c r="R55" s="2">
         <v>0.0003579861111111111</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1764,14 +4686,77 @@
       <c r="C56" s="2">
         <v>0.00029699074074074073</v>
       </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
       <c r="H56" s="2">
         <v>0.000428125</v>
       </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
       <c r="M56" s="2">
         <v>0.0003559027777777778</v>
       </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
       <c r="R56" s="2">
         <v>0.00040798611111111114</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1787,20 +4772,74 @@
       <c r="D57" s="2">
         <v>0.0005150462962962963</v>
       </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
       <c r="H57" s="2">
         <v>0.00034398148148148146</v>
       </c>
       <c r="I57" s="2">
         <v>0.0006953703703703704</v>
       </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
       <c r="M57" s="2">
         <v>0.0003450231481481482</v>
       </c>
       <c r="N57" s="2">
         <v>0.0007850694444444445</v>
       </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
       <c r="R57" s="2">
         <v>0.00025</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1816,14 +4855,74 @@
       <c r="D58" s="2">
         <v>0.0005943287037037037</v>
       </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
       <c r="H58" s="2">
         <v>0.0004092592592592593</v>
       </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
       <c r="M58" s="2">
         <v>0.00036157407407407405</v>
       </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
       <c r="R58" s="2">
         <v>0.0003341435185185185</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1836,11 +4935,77 @@
       <c r="C59" s="2">
         <v>0.00037766203703703703</v>
       </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
       <c r="H59" s="2">
         <v>0.0005017361111111111</v>
       </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
       <c r="M59" s="2">
         <v>0.0005099537037037037</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1856,14 +5021,74 @@
       <c r="D60" s="2">
         <v>0.0005262731481481481</v>
       </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
       <c r="H60" s="2">
         <v>0.0002994212962962963</v>
       </c>
       <c r="I60" s="2">
         <v>0.000697337962962963</v>
       </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
       <c r="M60" s="2">
         <v>0.0002994212962962963</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1876,17 +5101,77 @@
       <c r="C61" s="2">
         <v>0.0003685185185185185</v>
       </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
       <c r="H61" s="2">
         <v>0.00044988425925925925</v>
       </c>
       <c r="I61" s="2">
         <v>0.0010349537037037037</v>
       </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
       <c r="M61" s="2">
         <v>0.00037037037037037035</v>
       </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>0</v>
+      </c>
       <c r="R61" s="2">
         <v>0.00040972222222222224</v>
+      </c>
+      <c r="S61" s="2">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1902,17 +5187,74 @@
       <c r="D62" s="2">
         <v>0.0005825231481481482</v>
       </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
       <c r="H62" s="2">
         <v>0.0003769675925925926</v>
       </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
       <c r="M62" s="2">
         <v>0.0002994212962962963</v>
       </c>
       <c r="N62" s="2">
         <v>0.0006579861111111111</v>
       </c>
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>0</v>
+      </c>
       <c r="R62" s="2">
         <v>0.000284375</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1925,11 +5267,77 @@
       <c r="C63" s="2">
         <v>0.00037627314814814815</v>
       </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
       <c r="H63" s="2">
         <v>0.0005158564814814815</v>
       </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
       <c r="M63" s="2">
         <v>0.00046145833333333336</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1945,14 +5353,74 @@
       <c r="D64" s="2">
         <v>0.0005229166666666666</v>
       </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
       <c r="H64" s="2">
         <v>0.0003180555555555556</v>
       </c>
       <c r="I64" s="2">
         <v>0.0007336805555555556</v>
       </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
       <c r="M64" s="2">
         <v>0.00028680555555555555</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>0</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>0</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1968,20 +5436,74 @@
       <c r="D65" s="2">
         <v>0.0005215277777777778</v>
       </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
       <c r="H65" s="2">
         <v>0.00032407407407407406</v>
       </c>
       <c r="I65" s="2">
         <v>0.0007599537037037037</v>
       </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
       <c r="M65" s="2">
         <v>0.00032118055555555556</v>
       </c>
       <c r="N65" s="2">
         <v>0.0007361111111111111</v>
       </c>
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>0</v>
+      </c>
       <c r="R65" s="2">
         <v>0.00025694444444444446</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1994,14 +5516,77 @@
       <c r="C66" s="2">
         <v>0.00040474537037037036</v>
       </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
       <c r="H66" s="2">
         <v>0.000405787037037037</v>
       </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
       <c r="M66" s="2">
         <v>0.0005056712962962963</v>
       </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>0</v>
+      </c>
       <c r="R66" s="2">
         <v>0.00045520833333333334</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2014,17 +5599,77 @@
       <c r="C67" s="2">
         <v>0.000300462962962963</v>
       </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
       <c r="H67" s="2">
         <v>0.00035659722222222223</v>
       </c>
       <c r="I67" s="2">
         <v>0.0007993055555555556</v>
       </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
       <c r="M67" s="2">
         <v>0.0003966435185185185</v>
       </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>0</v>
+      </c>
       <c r="R67" s="2">
         <v>0.0004096064814814815</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2034,23 +5679,80 @@
       <c r="B68">
         <v>70</v>
       </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
       <c r="D68" s="2">
         <v>0.0004861111111111111</v>
       </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
       <c r="I68" s="2">
         <v>0.0006128472222222222</v>
       </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0</v>
+      </c>
       <c r="M68" s="2">
         <v>0.00029988425925925923</v>
       </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>0</v>
+      </c>
       <c r="R68" s="2">
         <v>0.0002503472222222222</v>
       </c>
       <c r="S68" s="2">
         <v>0.0005780092592592592</v>
       </c>
+      <c r="T68" s="2">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
       <c r="Y68" s="2">
         <v>0.0012756944444444445</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2066,23 +5768,74 @@
       <c r="D69" s="2">
         <v>0.0004917824074074074</v>
       </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
       <c r="I69" s="2">
         <v>0.0006662037037037037</v>
       </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
       <c r="M69" s="2">
         <v>0.0002666666666666667</v>
       </c>
       <c r="N69" s="2">
         <v>0.0006054398148148148</v>
       </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0</v>
+      </c>
       <c r="R69" s="2">
         <v>0.0002900462962962963</v>
       </c>
       <c r="S69" s="2">
         <v>0.0006579861111111111</v>
       </c>
+      <c r="T69" s="2">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="X69" s="2">
+        <v>0</v>
+      </c>
       <c r="Y69" s="2">
         <v>0.0013244212962962962</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2095,14 +5848,77 @@
       <c r="C70" s="2">
         <v>0.00026828703703703704</v>
       </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
       <c r="H70" s="2">
         <v>0.00036064814814814813</v>
       </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
       <c r="M70" s="2">
         <v>0.0004423611111111111</v>
       </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0</v>
+      </c>
       <c r="R70" s="2">
         <v>0.0004130787037037037</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2115,11 +5931,77 @@
       <c r="C71" s="2">
         <v>0.00022719907407407408</v>
       </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
       <c r="H71" s="2">
         <v>0.0003708333333333333</v>
       </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>0</v>
+      </c>
       <c r="R71" s="2">
         <v>0.0004266203703703704</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="X71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2135,14 +6017,74 @@
       <c r="D72" s="2">
         <v>0.0006125</v>
       </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
       <c r="H72" s="2">
         <v>0.0003696759259259259</v>
       </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
       <c r="M72" s="2">
         <v>0.00038159722222222224</v>
       </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>0</v>
+      </c>
       <c r="R72" s="2">
         <v>0.00037256944444444447</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="T72" s="2">
+        <v>0</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2158,14 +6100,74 @@
       <c r="D73" s="2">
         <v>0.0005021990740740741</v>
       </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
       <c r="H73" s="2">
         <v>0.00031469907407407407</v>
       </c>
       <c r="I73" s="2">
         <v>0.000712962962962963</v>
       </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0</v>
+      </c>
       <c r="M73" s="2">
         <v>0.0003251157407407407</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>0</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2178,14 +6180,77 @@
       <c r="C74" s="2">
         <v>0.0005329861111111111</v>
       </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
       <c r="H74" s="2">
         <v>0.0005884259259259259</v>
       </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0</v>
+      </c>
       <c r="M74" s="2">
         <v>0.0005346064814814815</v>
       </c>
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>0</v>
+      </c>
+      <c r="P74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>0</v>
+      </c>
       <c r="R74" s="2">
         <v>0.0006217592592592593</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
+      <c r="T74" s="2">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2201,17 +6266,74 @@
       <c r="D75" s="2">
         <v>0.0006074074074074074</v>
       </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
       <c r="H75" s="2">
         <v>0.0003140046296296296</v>
       </c>
       <c r="I75" s="2">
         <v>0.0006891203703703703</v>
       </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>0</v>
+      </c>
+      <c r="P75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>0</v>
+      </c>
       <c r="R75" s="2">
         <v>0.0002857638888888889</v>
       </c>
       <c r="S75" s="2">
         <v>0.0007826388888888889</v>
+      </c>
+      <c r="T75" s="2">
+        <v>0</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0</v>
+      </c>
+      <c r="V75" s="2">
+        <v>0</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+      <c r="X75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2224,8 +6346,77 @@
       <c r="C76" s="2">
         <v>0.0004625</v>
       </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
       <c r="H76" s="2">
         <v>0.0005434027777777777</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>0</v>
+      </c>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>0</v>
+      </c>
+      <c r="P76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>0</v>
+      </c>
+      <c r="R76" s="2">
+        <v>0</v>
+      </c>
+      <c r="S76" s="2">
+        <v>0</v>
+      </c>
+      <c r="T76" s="2">
+        <v>0</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2238,8 +6429,77 @@
       <c r="C77" s="2">
         <v>0.0004228009259259259</v>
       </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
       <c r="M77" s="2">
         <v>0.0004326388888888889</v>
+      </c>
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>0</v>
+      </c>
+      <c r="R77" s="2">
+        <v>0</v>
+      </c>
+      <c r="S77" s="2">
+        <v>0</v>
+      </c>
+      <c r="T77" s="2">
+        <v>0</v>
+      </c>
+      <c r="U77" s="2">
+        <v>0</v>
+      </c>
+      <c r="V77" s="2">
+        <v>0</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+      <c r="X77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2252,8 +6512,77 @@
       <c r="C78" s="2">
         <v>0.0003974537037037037</v>
       </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
       <c r="H78" s="2">
         <v>0.0005451388888888888</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>0</v>
+      </c>
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2">
+        <v>0</v>
+      </c>
+      <c r="T78" s="2">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2263,6 +6592,81 @@
       <c r="B79">
         <v>81</v>
       </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>0</v>
+      </c>
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+      <c r="P79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <v>0</v>
+      </c>
+      <c r="U79" s="2">
+        <v>0</v>
+      </c>
+      <c r="V79" s="2">
+        <v>0</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+      <c r="X79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -2271,8 +6675,80 @@
       <c r="B80">
         <v>82</v>
       </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
       <c r="M80" s="2">
         <v>0.00028564814814814815</v>
+      </c>
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="2">
+        <v>0</v>
+      </c>
+      <c r="P80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2285,11 +6761,77 @@
       <c r="C81" s="2">
         <v>0.00030613425925925925</v>
       </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
       <c r="H81" s="2">
         <v>0.00046076388888888887</v>
       </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="2">
+        <v>0</v>
+      </c>
+      <c r="P81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>0</v>
+      </c>
       <c r="R81" s="2">
         <v>0.0005555555555555556</v>
+      </c>
+      <c r="S81" s="2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="2">
+        <v>0</v>
+      </c>
+      <c r="V81" s="2">
+        <v>0</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+      <c r="X81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2302,11 +6844,77 @@
       <c r="C82" s="2">
         <v>0.0002872685185185185</v>
       </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
       <c r="H82" s="2">
         <v>0.0005138888888888889</v>
       </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
       <c r="M82" s="2">
         <v>0.00038738425925925925</v>
+      </c>
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>0</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2316,8 +6924,80 @@
       <c r="B83">
         <v>85</v>
       </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>0</v>
+      </c>
       <c r="M83" s="2">
         <v>0.0005263888888888888</v>
+      </c>
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="2">
+        <v>0</v>
+      </c>
+      <c r="P83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>0</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <v>0</v>
+      </c>
+      <c r="T83" s="2">
+        <v>0</v>
+      </c>
+      <c r="U83" s="2">
+        <v>0</v>
+      </c>
+      <c r="V83" s="2">
+        <v>0</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+      <c r="X83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2327,8 +7007,80 @@
       <c r="B84">
         <v>86</v>
       </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
       <c r="H84" s="2">
         <v>0.0005743055555555556</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2344,17 +7096,74 @@
       <c r="D85" s="2">
         <v>0.0006481481481481481</v>
       </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
       <c r="H85" s="2">
         <v>0.000405787037037037</v>
       </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
       <c r="M85" s="2">
         <v>0.0003113425925925926</v>
       </c>
       <c r="N85" s="2">
         <v>0.0006864583333333333</v>
       </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
       <c r="R85" s="2">
         <v>0.0003415509259259259</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2367,11 +7176,77 @@
       <c r="C86" s="2">
         <v>0.0003204861111111111</v>
       </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
       <c r="H86" s="2">
         <v>0.0005489583333333334</v>
       </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
       <c r="M86" s="2">
         <v>0.0003538194444444444</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>0</v>
+      </c>
+      <c r="T86" s="2">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2384,8 +7259,77 @@
       <c r="C87" s="2">
         <v>0.0003755787037037037</v>
       </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
       <c r="H87" s="2">
         <v>0.000522337962962963</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0</v>
+      </c>
+      <c r="R87" s="2">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2">
+        <v>0</v>
+      </c>
+      <c r="U87" s="2">
+        <v>0</v>
+      </c>
+      <c r="V87" s="2">
+        <v>0</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0</v>
+      </c>
+      <c r="X87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2395,6 +7339,81 @@
       <c r="B88">
         <v>90</v>
       </c>
+      <c r="C88" s="2">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2">
+        <v>0</v>
+      </c>
+      <c r="S88" s="2">
+        <v>0</v>
+      </c>
+      <c r="T88" s="2">
+        <v>0</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0</v>
+      </c>
+      <c r="V88" s="2">
+        <v>0</v>
+      </c>
+      <c r="W88" s="2">
+        <v>0</v>
+      </c>
+      <c r="X88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -2406,11 +7425,77 @@
       <c r="C89" s="2">
         <v>0.0002798611111111111</v>
       </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
       <c r="H89" s="2">
         <v>0.0005203703703703704</v>
       </c>
+      <c r="I89" s="2">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
       <c r="M89" s="2">
         <v>0.0003811342592592593</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="2">
+        <v>0</v>
+      </c>
+      <c r="V89" s="2">
+        <v>0</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0</v>
+      </c>
+      <c r="X89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2423,11 +7508,77 @@
       <c r="C90" s="2">
         <v>0.0003787037037037037</v>
       </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
       <c r="H90" s="2">
         <v>0.0006592592592592593</v>
       </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
       <c r="M90" s="2">
         <v>0.0004527777777777778</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0</v>
+      </c>
+      <c r="U90" s="2">
+        <v>0</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+      <c r="X90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2440,11 +7591,77 @@
       <c r="C91" s="2">
         <v>0.0004835648148148148</v>
       </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
       <c r="H91" s="2">
         <v>0.0007121527777777778</v>
       </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
       <c r="M91" s="2">
         <v>0.0006568287037037037</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>0</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+      <c r="X91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2457,11 +7674,77 @@
       <c r="C92" s="2">
         <v>0.00027210648148148146</v>
       </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
       <c r="H92" s="2">
         <v>0.00036782407407407407</v>
       </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
       <c r="M92" s="2">
         <v>0.0003587962962962963</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>0</v>
+      </c>
+      <c r="P92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>0</v>
+      </c>
+      <c r="S92" s="2">
+        <v>0</v>
+      </c>
+      <c r="T92" s="2">
+        <v>0</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2474,14 +7757,77 @@
       <c r="C93" s="2">
         <v>0.00019988425925925927</v>
       </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
       <c r="H93" s="2">
         <v>0.00032546296296296295</v>
       </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
       <c r="M93" s="2">
         <v>0.00030127314814814817</v>
       </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
       <c r="R93" s="2">
         <v>0.0002738425925925926</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>0</v>
+      </c>
+      <c r="U93" s="2">
+        <v>0</v>
+      </c>
+      <c r="V93" s="2">
+        <v>0</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+      <c r="X93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2494,14 +7840,77 @@
       <c r="C94" s="2">
         <v>0.00025891203703703704</v>
       </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
       <c r="H94" s="2">
         <v>0.00033171296296296296</v>
       </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
       <c r="M94" s="2">
         <v>0.00033703703703703706</v>
       </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>0</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>0</v>
+      </c>
       <c r="R94" s="2">
         <v>0.0003515046296296296</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="2">
+        <v>0</v>
+      </c>
+      <c r="U94" s="2">
+        <v>0</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>0</v>
+      </c>
+      <c r="X94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2514,6 +7923,78 @@
       <c r="C95" s="2">
         <v>0.00040613425925925924</v>
       </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
+        <v>0</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2">
+        <v>0</v>
+      </c>
+      <c r="U95" s="2">
+        <v>0</v>
+      </c>
+      <c r="V95" s="2">
+        <v>0</v>
+      </c>
+      <c r="W95" s="2">
+        <v>0</v>
+      </c>
+      <c r="X95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -2525,6 +8006,78 @@
       <c r="C96" s="2">
         <v>0.00046574074074074074</v>
       </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
+        <v>0</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -2533,6 +8086,81 @@
       <c r="B97">
         <v>99</v>
       </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>0</v>
+      </c>
+      <c r="U97" s="2">
+        <v>0</v>
+      </c>
+      <c r="V97" s="2">
+        <v>0</v>
+      </c>
+      <c r="W97" s="2">
+        <v>0</v>
+      </c>
+      <c r="X97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
